--- a/updated_stations.xlsx
+++ b/updated_stations.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,183 +453,157 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>TK</t>
+          <t>YPR</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>77.10194799999999</v>
+        <v>77.551368</v>
       </c>
       <c r="C2" t="n">
-        <v>13.333769</v>
+        <v>13.023295</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>KIAT</t>
+          <t>BAW</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>77.147713</v>
+        <v>77.506721</v>
       </c>
       <c r="C3" t="n">
-        <v>13.315462</v>
+        <v>13.073919</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>HHL</t>
+          <t>SDVL</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>77.189598</v>
+        <v>77.490005</v>
       </c>
       <c r="C4" t="n">
-        <v>13.28038</v>
+        <v>13.091015</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>DBS</t>
+          <t>GHL</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>77.25500099999999</v>
+        <v>77.414303</v>
       </c>
       <c r="C5" t="n">
-        <v>13.235434</v>
+        <v>13.148609</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>NDV</t>
+          <t>BNKH</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>77.27972</v>
+        <v>77.38310300000001</v>
       </c>
       <c r="C6" t="n">
-        <v>13.246128</v>
+        <v>13.193968</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>MDLL</t>
+          <t>DBL</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>77.310963</v>
+        <v>77.3516</v>
       </c>
       <c r="C7" t="n">
-        <v>13.236604</v>
+        <v>13.216927</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>DBL</t>
+          <t>MDLL</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>77.3516</v>
+        <v>77.310963</v>
       </c>
       <c r="C8" t="n">
-        <v>13.216927</v>
+        <v>13.236604</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>BNKH</t>
+          <t>NDV</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>77.38310300000001</v>
+        <v>77.27972</v>
       </c>
       <c r="C9" t="n">
-        <v>13.193968</v>
+        <v>13.246128</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>GHL</t>
+          <t>DBS</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>77.414303</v>
+        <v>77.25500099999999</v>
       </c>
       <c r="C10" t="n">
-        <v>13.148609</v>
+        <v>13.235434</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>SDVL</t>
+          <t>HHL</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>77.490005</v>
+        <v>77.189598</v>
       </c>
       <c r="C11" t="n">
-        <v>13.091015</v>
+        <v>13.28038</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>BAW</t>
+          <t>KIAT</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>77.506721</v>
+        <v>77.147713</v>
       </c>
       <c r="C12" t="n">
-        <v>13.073919</v>
+        <v>13.315462</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>YPR</t>
+          <t>TK</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>77.551368</v>
+        <v>77.10194799999999</v>
       </c>
       <c r="C13" t="n">
-        <v>13.023295</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>MWM</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>77.562639</v>
-      </c>
-      <c r="C14" t="n">
-        <v>13.002237</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>SBC</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>77.568619</v>
-      </c>
-      <c r="C15" t="n">
-        <v>12.978129</v>
+        <v>13.333769</v>
       </c>
     </row>
   </sheetData>

--- a/updated_stations.xlsx
+++ b/updated_stations.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,156 +453,182 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>YPR</t>
+          <t>SBC</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>77.551368</v>
+        <v>77.568619</v>
       </c>
       <c r="C2" t="n">
-        <v>13.023295</v>
+        <v>12.978129</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>BAW</t>
+          <t>MWM</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>77.506721</v>
+        <v>77.562639</v>
       </c>
       <c r="C3" t="n">
-        <v>13.073919</v>
+        <v>13.002237</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>SDVL</t>
+          <t>YPR</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>77.490005</v>
+        <v>77.551368</v>
       </c>
       <c r="C4" t="n">
-        <v>13.091015</v>
+        <v>13.023295</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>GHL</t>
+          <t>BAW</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>77.414303</v>
+        <v>77.506721</v>
       </c>
       <c r="C5" t="n">
-        <v>13.148609</v>
+        <v>13.073919</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>BNKH</t>
+          <t>SDVL</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>77.38310300000001</v>
+        <v>77.490005</v>
       </c>
       <c r="C6" t="n">
-        <v>13.193968</v>
+        <v>13.091015</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DBL</t>
+          <t>GHL</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>77.3516</v>
+        <v>77.414303</v>
       </c>
       <c r="C7" t="n">
-        <v>13.216927</v>
+        <v>13.148609</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>MDLL</t>
+          <t>BNKH</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>77.310963</v>
+        <v>77.38310300000001</v>
       </c>
       <c r="C8" t="n">
-        <v>13.236604</v>
+        <v>13.193968</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>NDV</t>
+          <t>DBL</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>77.27972</v>
+        <v>77.3516</v>
       </c>
       <c r="C9" t="n">
-        <v>13.246128</v>
+        <v>13.216927</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>DBS</t>
+          <t>MDLL</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>77.25500099999999</v>
+        <v>77.310963</v>
       </c>
       <c r="C10" t="n">
-        <v>13.235434</v>
+        <v>13.236604</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>HHL</t>
+          <t>NDV</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>77.189598</v>
+        <v>77.27972</v>
       </c>
       <c r="C11" t="n">
-        <v>13.28038</v>
+        <v>13.246128</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>KIAT</t>
+          <t>DBS</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>77.147713</v>
+        <v>77.25500099999999</v>
       </c>
       <c r="C12" t="n">
-        <v>13.315462</v>
+        <v>13.235434</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
+          <t>HHL</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>77.189598</v>
+      </c>
+      <c r="C13" t="n">
+        <v>13.28038</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>KIAT</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>77.147713</v>
+      </c>
+      <c r="C14" t="n">
+        <v>13.315462</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
           <t>TK</t>
         </is>
       </c>
-      <c r="B13" t="n">
+      <c r="B15" t="n">
         <v>77.10194799999999</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C15" t="n">
         <v>13.333769</v>
       </c>
     </row>
